--- a/Basededatos/RTRA.xlsx
+++ b/Basededatos/RTRA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20417"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://luzdelsurlds-my.sharepoint.com/personal/roquispec_luzdelsur_com_pe/Documents/Documentos/Estudios de Ingreso/ProyectoRyD/Basededatos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roquispec\OneDrive - LUZ DEL SUR S.A.A\Documentos\Estudios de Ingreso\ProyectoRyD_V2\Basededatos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_AD4D2F04E46CFB4ACB3E20031514F388693EDF25" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B914B3C2-9B00-470B-9FE8-6C9C4B3E6CC2}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="11_AD4D2F04E46CFB4ACB3E20031514F388693EDF25" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA570BA1-2D9C-4E51-804C-C012B356BA03}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,15 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
       <xlwcv:version setVersion="1"/>
@@ -616,7 +607,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -627,6 +618,9 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -910,7 +904,7 @@
   <dimension ref="B2:FL21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -918,20 +912,19 @@
     <col min="1" max="1" width="3.7109375" customWidth="1"/>
     <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="30" width="11" bestFit="1" customWidth="1"/>
-    <col min="31" max="39" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="40" max="57" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="58" max="66" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="67" max="84" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="85" max="93" width="10" bestFit="1" customWidth="1"/>
-    <col min="94" max="111" width="11" bestFit="1" customWidth="1"/>
-    <col min="112" max="120" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="121" max="138" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="139" max="147" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="148" max="165" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="166" max="166" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="167" max="168" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="30" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="31" max="39" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="40" max="57" width="11" bestFit="1" customWidth="1"/>
+    <col min="58" max="66" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="67" max="84" width="11" bestFit="1" customWidth="1"/>
+    <col min="85" max="93" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="94" max="111" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="112" max="120" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="121" max="138" width="11" bestFit="1" customWidth="1"/>
+    <col min="139" max="147" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="148" max="165" width="11" bestFit="1" customWidth="1"/>
+    <col min="166" max="168" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:168" x14ac:dyDescent="0.25">
@@ -7469,6 +7462,509 @@
       <c r="FK18" s="2"/>
       <c r="FL18" s="2"/>
     </row>
+    <row r="19" spans="2:168" x14ac:dyDescent="0.25">
+      <c r="B19" s="4">
+        <v>338118</v>
+      </c>
+      <c r="C19" s="1">
+        <v>45951</v>
+      </c>
+      <c r="D19" s="6">
+        <v>99999</v>
+      </c>
+      <c r="E19" s="6">
+        <v>99999</v>
+      </c>
+      <c r="F19" s="6">
+        <v>99999</v>
+      </c>
+      <c r="G19" s="6">
+        <v>99999</v>
+      </c>
+      <c r="H19" s="6">
+        <v>99999</v>
+      </c>
+      <c r="I19" s="6">
+        <v>99999</v>
+      </c>
+      <c r="J19" s="6">
+        <v>99999</v>
+      </c>
+      <c r="K19" s="6">
+        <v>99999</v>
+      </c>
+      <c r="L19" s="6">
+        <v>99999</v>
+      </c>
+      <c r="M19" s="6">
+        <v>99999</v>
+      </c>
+      <c r="N19" s="6">
+        <v>99999</v>
+      </c>
+      <c r="O19" s="6">
+        <v>99999</v>
+      </c>
+      <c r="P19" s="6">
+        <v>99999</v>
+      </c>
+      <c r="Q19" s="6">
+        <v>99999</v>
+      </c>
+      <c r="R19" s="6">
+        <v>99999</v>
+      </c>
+      <c r="S19" s="6">
+        <v>99999</v>
+      </c>
+      <c r="T19" s="6">
+        <v>99999</v>
+      </c>
+      <c r="U19" s="6">
+        <v>99999</v>
+      </c>
+      <c r="V19" s="6">
+        <v>99999</v>
+      </c>
+      <c r="W19" s="6">
+        <v>99999</v>
+      </c>
+      <c r="X19" s="6">
+        <v>99999</v>
+      </c>
+      <c r="Y19" s="6">
+        <v>99999</v>
+      </c>
+      <c r="Z19" s="6">
+        <v>99999</v>
+      </c>
+      <c r="AA19" s="6">
+        <v>99999</v>
+      </c>
+      <c r="AB19" s="6">
+        <v>99999</v>
+      </c>
+      <c r="AC19" s="6">
+        <v>99999</v>
+      </c>
+      <c r="AD19" s="6">
+        <v>99999</v>
+      </c>
+      <c r="AE19" s="6">
+        <v>99999</v>
+      </c>
+      <c r="AF19" s="6">
+        <v>99999</v>
+      </c>
+      <c r="AG19" s="6">
+        <v>99999</v>
+      </c>
+      <c r="AH19" s="6">
+        <v>99999</v>
+      </c>
+      <c r="AI19" s="6">
+        <v>99999</v>
+      </c>
+      <c r="AJ19" s="6">
+        <v>99999</v>
+      </c>
+      <c r="AK19" s="6">
+        <v>99999</v>
+      </c>
+      <c r="AL19" s="6">
+        <v>99999</v>
+      </c>
+      <c r="AM19" s="6">
+        <v>99999</v>
+      </c>
+      <c r="AN19" s="6">
+        <v>99999</v>
+      </c>
+      <c r="AO19" s="6">
+        <v>99999</v>
+      </c>
+      <c r="AP19" s="6">
+        <v>99999</v>
+      </c>
+      <c r="AQ19" s="6">
+        <v>99999</v>
+      </c>
+      <c r="AR19" s="6">
+        <v>99999</v>
+      </c>
+      <c r="AS19" s="6">
+        <v>99999</v>
+      </c>
+      <c r="AT19" s="6">
+        <v>99999</v>
+      </c>
+      <c r="AU19" s="6">
+        <v>99999</v>
+      </c>
+      <c r="AV19" s="6">
+        <v>99999</v>
+      </c>
+      <c r="AW19" s="6">
+        <v>99999</v>
+      </c>
+      <c r="AX19" s="6">
+        <v>99999</v>
+      </c>
+      <c r="AY19" s="6">
+        <v>99999</v>
+      </c>
+      <c r="AZ19" s="6">
+        <v>99999</v>
+      </c>
+      <c r="BA19" s="6">
+        <v>99999</v>
+      </c>
+      <c r="BB19" s="6">
+        <v>99999</v>
+      </c>
+      <c r="BC19" s="6">
+        <v>99999</v>
+      </c>
+      <c r="BD19" s="6">
+        <v>99999</v>
+      </c>
+      <c r="BE19" s="6">
+        <v>99999</v>
+      </c>
+      <c r="BF19" s="6">
+        <v>99999</v>
+      </c>
+      <c r="BG19" s="6">
+        <v>99999</v>
+      </c>
+      <c r="BH19" s="6">
+        <v>99999</v>
+      </c>
+      <c r="BI19" s="6">
+        <v>99999</v>
+      </c>
+      <c r="BJ19" s="6">
+        <v>99999</v>
+      </c>
+      <c r="BK19" s="6">
+        <v>99999</v>
+      </c>
+      <c r="BL19" s="6">
+        <v>99999</v>
+      </c>
+      <c r="BM19" s="6">
+        <v>99999</v>
+      </c>
+      <c r="BN19" s="6">
+        <v>99999</v>
+      </c>
+      <c r="BO19" s="6">
+        <v>99999</v>
+      </c>
+      <c r="BP19" s="6">
+        <v>99999</v>
+      </c>
+      <c r="BQ19" s="6">
+        <v>99999</v>
+      </c>
+      <c r="BR19" s="6">
+        <v>99999</v>
+      </c>
+      <c r="BS19" s="6">
+        <v>99999</v>
+      </c>
+      <c r="BT19" s="6">
+        <v>99999</v>
+      </c>
+      <c r="BU19" s="6">
+        <v>99999</v>
+      </c>
+      <c r="BV19" s="6">
+        <v>99999</v>
+      </c>
+      <c r="BW19" s="6">
+        <v>99999</v>
+      </c>
+      <c r="BX19" s="6">
+        <v>99999</v>
+      </c>
+      <c r="BY19" s="6">
+        <v>99999</v>
+      </c>
+      <c r="BZ19" s="6">
+        <v>99999</v>
+      </c>
+      <c r="CA19" s="6">
+        <v>99999</v>
+      </c>
+      <c r="CB19" s="6">
+        <v>99999</v>
+      </c>
+      <c r="CC19" s="6">
+        <v>99999</v>
+      </c>
+      <c r="CD19" s="6">
+        <v>99999</v>
+      </c>
+      <c r="CE19" s="6">
+        <v>99999</v>
+      </c>
+      <c r="CF19" s="6">
+        <v>99999</v>
+      </c>
+      <c r="CG19" s="6">
+        <v>99999</v>
+      </c>
+      <c r="CH19" s="6">
+        <v>99999</v>
+      </c>
+      <c r="CI19" s="6">
+        <v>99999</v>
+      </c>
+      <c r="CJ19" s="6">
+        <v>99999</v>
+      </c>
+      <c r="CK19" s="6">
+        <v>99999</v>
+      </c>
+      <c r="CL19" s="6">
+        <v>99999</v>
+      </c>
+      <c r="CM19" s="6">
+        <v>99999</v>
+      </c>
+      <c r="CN19" s="6">
+        <v>99999</v>
+      </c>
+      <c r="CO19" s="6">
+        <v>99999</v>
+      </c>
+      <c r="CP19" s="6">
+        <v>99999</v>
+      </c>
+      <c r="CQ19" s="6">
+        <v>99999</v>
+      </c>
+      <c r="CR19" s="6">
+        <v>99999</v>
+      </c>
+      <c r="CS19" s="6">
+        <v>99999</v>
+      </c>
+      <c r="CT19" s="6">
+        <v>99999</v>
+      </c>
+      <c r="CU19" s="6">
+        <v>99999</v>
+      </c>
+      <c r="CV19" s="6">
+        <v>99999</v>
+      </c>
+      <c r="CW19" s="6">
+        <v>99999</v>
+      </c>
+      <c r="CX19" s="6">
+        <v>99999</v>
+      </c>
+      <c r="CY19" s="6">
+        <v>99999</v>
+      </c>
+      <c r="CZ19" s="6">
+        <v>99999</v>
+      </c>
+      <c r="DA19" s="6">
+        <v>99999</v>
+      </c>
+      <c r="DB19" s="6">
+        <v>99999</v>
+      </c>
+      <c r="DC19" s="6">
+        <v>99999</v>
+      </c>
+      <c r="DD19" s="6">
+        <v>99999</v>
+      </c>
+      <c r="DE19" s="6">
+        <v>99999</v>
+      </c>
+      <c r="DF19" s="6">
+        <v>99999</v>
+      </c>
+      <c r="DG19" s="6">
+        <v>99999</v>
+      </c>
+      <c r="DH19" s="6">
+        <v>99999</v>
+      </c>
+      <c r="DI19" s="6">
+        <v>99999</v>
+      </c>
+      <c r="DJ19" s="6">
+        <v>99999</v>
+      </c>
+      <c r="DK19" s="6">
+        <v>99999</v>
+      </c>
+      <c r="DL19" s="6">
+        <v>99999</v>
+      </c>
+      <c r="DM19" s="6">
+        <v>99999</v>
+      </c>
+      <c r="DN19" s="6">
+        <v>99999</v>
+      </c>
+      <c r="DO19" s="6">
+        <v>99999</v>
+      </c>
+      <c r="DP19" s="6">
+        <v>99999</v>
+      </c>
+      <c r="DQ19" s="6">
+        <v>99999</v>
+      </c>
+      <c r="DR19" s="6">
+        <v>99999</v>
+      </c>
+      <c r="DS19" s="6">
+        <v>99999</v>
+      </c>
+      <c r="DT19" s="6">
+        <v>99999</v>
+      </c>
+      <c r="DU19" s="6">
+        <v>99999</v>
+      </c>
+      <c r="DV19" s="6">
+        <v>99999</v>
+      </c>
+      <c r="DW19" s="6">
+        <v>99999</v>
+      </c>
+      <c r="DX19" s="6">
+        <v>99999</v>
+      </c>
+      <c r="DY19" s="6">
+        <v>99999</v>
+      </c>
+      <c r="DZ19" s="6">
+        <v>99999</v>
+      </c>
+      <c r="EA19" s="6">
+        <v>99999</v>
+      </c>
+      <c r="EB19" s="6">
+        <v>99999</v>
+      </c>
+      <c r="EC19" s="6">
+        <v>99999</v>
+      </c>
+      <c r="ED19" s="6">
+        <v>99999</v>
+      </c>
+      <c r="EE19" s="6">
+        <v>99999</v>
+      </c>
+      <c r="EF19" s="6">
+        <v>99999</v>
+      </c>
+      <c r="EG19" s="6">
+        <v>99999</v>
+      </c>
+      <c r="EH19" s="6">
+        <v>99999</v>
+      </c>
+      <c r="EI19" s="6">
+        <v>99999</v>
+      </c>
+      <c r="EJ19" s="6">
+        <v>99999</v>
+      </c>
+      <c r="EK19" s="6">
+        <v>99999</v>
+      </c>
+      <c r="EL19" s="6">
+        <v>99999</v>
+      </c>
+      <c r="EM19" s="6">
+        <v>99999</v>
+      </c>
+      <c r="EN19" s="6">
+        <v>99999</v>
+      </c>
+      <c r="EO19" s="6">
+        <v>99999</v>
+      </c>
+      <c r="EP19" s="6">
+        <v>99999</v>
+      </c>
+      <c r="EQ19" s="6">
+        <v>99999</v>
+      </c>
+      <c r="ER19" s="6">
+        <v>99999</v>
+      </c>
+      <c r="ES19" s="6">
+        <v>99999</v>
+      </c>
+      <c r="ET19" s="6">
+        <v>99999</v>
+      </c>
+      <c r="EU19" s="6">
+        <v>99999</v>
+      </c>
+      <c r="EV19" s="6">
+        <v>99999</v>
+      </c>
+      <c r="EW19" s="6">
+        <v>99999</v>
+      </c>
+      <c r="EX19" s="6">
+        <v>99999</v>
+      </c>
+      <c r="EY19" s="6">
+        <v>99999</v>
+      </c>
+      <c r="EZ19" s="6">
+        <v>99999</v>
+      </c>
+      <c r="FA19" s="6">
+        <v>99999</v>
+      </c>
+      <c r="FB19" s="6">
+        <v>99999</v>
+      </c>
+      <c r="FC19" s="6">
+        <v>99999</v>
+      </c>
+      <c r="FD19" s="6">
+        <v>99999</v>
+      </c>
+      <c r="FE19" s="6">
+        <v>99999</v>
+      </c>
+      <c r="FF19" s="6">
+        <v>99999</v>
+      </c>
+      <c r="FG19" s="6">
+        <v>99999</v>
+      </c>
+      <c r="FH19" s="6">
+        <v>99999</v>
+      </c>
+      <c r="FI19" s="6">
+        <v>99999</v>
+      </c>
+      <c r="FJ19" s="6">
+        <v>99999</v>
+      </c>
+      <c r="FK19" s="6">
+        <v>99999</v>
+      </c>
+      <c r="FL19" s="6">
+        <v>99999</v>
+      </c>
+    </row>
     <row r="21" spans="2:168" x14ac:dyDescent="0.25">
       <c r="D21" s="5"/>
     </row>
